--- a/managementcmdfiles/recordid.xlsx
+++ b/managementcmdfiles/recordid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
   <si>
     <t xml:space="preserve">Record Identifier ID</t>
   </si>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">MO</t>
   </si>
   <si>
+    <t xml:space="preserve">manufacturingorderlines</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturingorderlines</t>
   </si>
   <si>
     <t xml:space="preserve">purchaseorder</t>
@@ -517,11 +517,14 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65:C84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.89"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -543,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -553,9 +556,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="4" t="n">
         <v>1</v>
       </c>
@@ -563,16 +564,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>1</v>
@@ -592,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>1</v>
@@ -601,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -610,7 +611,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>1</v>
@@ -628,7 +629,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>1</v>
@@ -646,7 +647,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>1</v>
@@ -666,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>1</v>
@@ -684,7 +685,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>1</v>
@@ -704,7 +705,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>1</v>
@@ -724,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>1</v>
@@ -742,7 +743,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>1</v>
@@ -751,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
@@ -762,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>1</v>
@@ -771,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
@@ -780,7 +781,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>1</v>
@@ -798,7 +799,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>1</v>
@@ -818,7 +819,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>1</v>
@@ -827,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
@@ -836,7 +837,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>1</v>
@@ -856,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>1</v>
@@ -876,7 +877,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>1</v>
@@ -885,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
@@ -894,7 +895,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1</v>
@@ -912,7 +913,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>1</v>
@@ -930,7 +931,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>1</v>
@@ -948,7 +949,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>1</v>
@@ -966,7 +967,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>1</v>
@@ -984,7 +985,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>1</v>
@@ -1002,7 +1003,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>1</v>
@@ -1020,7 +1021,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>1</v>
@@ -1038,7 +1039,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>1</v>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>1</v>
@@ -1074,7 +1075,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>1</v>
@@ -1092,7 +1093,7 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>1</v>
@@ -1110,7 +1111,7 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>1</v>
@@ -1128,7 +1129,7 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>1</v>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>1</v>
@@ -1164,7 +1165,7 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>1</v>
@@ -1182,7 +1183,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>1</v>
@@ -1200,7 +1201,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>1</v>
@@ -1218,7 +1219,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>1</v>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>1</v>
@@ -1254,7 +1255,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>1</v>
@@ -1272,7 +1273,7 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>1</v>
@@ -1290,7 +1291,7 @@
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -1308,7 +1309,7 @@
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
@@ -1344,7 +1345,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>1</v>
@@ -1362,7 +1363,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>1</v>
@@ -1380,7 +1381,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>1</v>
@@ -1398,7 +1399,7 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -1407,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>48</v>
       </c>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
@@ -1434,7 +1435,7 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
@@ -1452,7 +1453,7 @@
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>1</v>
@@ -1470,7 +1471,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>1</v>
@@ -1488,7 +1489,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>1</v>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
@@ -1524,7 +1525,7 @@
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>1</v>
@@ -1542,7 +1543,7 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1</v>
@@ -1560,7 +1561,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
@@ -1578,7 +1579,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>1</v>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>1</v>
@@ -1605,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
         <v>59</v>
       </c>
@@ -1613,9 +1614,7 @@
         <v>73</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="4" t="n">
         <v>1</v>
       </c>
@@ -1632,7 +1631,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>1</v>
@@ -1650,7 +1649,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>1</v>
@@ -1668,7 +1667,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>1</v>
@@ -1688,7 +1687,7 @@
         <v>78</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>1</v>
@@ -1706,7 +1705,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>1</v>
@@ -1724,7 +1723,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>1</v>
@@ -1742,7 +1741,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>1</v>
@@ -1760,7 +1759,7 @@
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>1</v>
@@ -1778,7 +1777,7 @@
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>1</v>
@@ -1796,7 +1795,7 @@
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>1</v>
@@ -1814,7 +1813,7 @@
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>1</v>
@@ -1832,7 +1831,7 @@
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>1</v>
@@ -1850,7 +1849,7 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>1</v>
@@ -1868,7 +1867,7 @@
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>1</v>
@@ -1886,7 +1885,7 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>1</v>
@@ -1904,7 +1903,7 @@
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>1</v>
@@ -1922,7 +1921,7 @@
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>1</v>
@@ -1940,7 +1939,7 @@
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>1</v>
@@ -1958,7 +1957,7 @@
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>1</v>
@@ -1976,7 +1975,7 @@
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>1</v>
@@ -1994,7 +1993,7 @@
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>1</v>
@@ -2012,7 +2011,7 @@
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>1</v>
@@ -2030,7 +2029,7 @@
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>1</v>
@@ -2048,7 +2047,7 @@
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>1</v>

--- a/managementcmdfiles/recordid.xlsx
+++ b/managementcmdfiles/recordid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
   <si>
     <t xml:space="preserve">Record Identifier ID</t>
   </si>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">MO</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">manufacturingorderlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">purchaseorder</t>
@@ -517,14 +517,11 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65:C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.89"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -546,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -556,7 +553,9 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="4" t="n">
         <v>1</v>
       </c>
@@ -564,16 +563,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>1</v>
@@ -593,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>1</v>
@@ -602,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -611,7 +610,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>1</v>
@@ -629,7 +628,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>1</v>
@@ -647,7 +646,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>1</v>
@@ -667,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>1</v>
@@ -685,7 +684,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>1</v>
@@ -705,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>1</v>
@@ -725,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>1</v>
@@ -743,7 +742,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>1</v>
@@ -752,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
@@ -763,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>1</v>
@@ -772,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
@@ -781,7 +780,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>1</v>
@@ -799,7 +798,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>1</v>
@@ -819,7 +818,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>1</v>
@@ -828,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
@@ -837,7 +836,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>1</v>
@@ -857,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>1</v>
@@ -877,7 +876,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>1</v>
@@ -886,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
@@ -895,7 +894,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1</v>
@@ -913,7 +912,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>1</v>
@@ -931,7 +930,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>1</v>
@@ -949,7 +948,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>1</v>
@@ -967,7 +966,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>1</v>
@@ -985,7 +984,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>1</v>
@@ -1003,7 +1002,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>1</v>
@@ -1021,7 +1020,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>1</v>
@@ -1039,7 +1038,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>1</v>
@@ -1057,7 +1056,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>1</v>
@@ -1075,7 +1074,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>1</v>
@@ -1093,7 +1092,7 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>1</v>
@@ -1111,7 +1110,7 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>1</v>
@@ -1129,7 +1128,7 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>1</v>
@@ -1147,7 +1146,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>1</v>
@@ -1165,7 +1164,7 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>1</v>
@@ -1183,7 +1182,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>1</v>
@@ -1201,7 +1200,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>1</v>
@@ -1219,7 +1218,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>1</v>
@@ -1237,7 +1236,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>1</v>
@@ -1255,7 +1254,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>1</v>
@@ -1273,7 +1272,7 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>1</v>
@@ -1291,7 +1290,7 @@
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -1309,7 +1308,7 @@
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
@@ -1327,7 +1326,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
@@ -1345,7 +1344,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>1</v>
@@ -1363,7 +1362,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>1</v>
@@ -1381,7 +1380,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>1</v>
@@ -1399,7 +1398,7 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -1408,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>48</v>
       </c>
@@ -1417,7 +1416,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
@@ -1435,7 +1434,7 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
@@ -1453,7 +1452,7 @@
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>1</v>
@@ -1471,7 +1470,7 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>1</v>
@@ -1489,7 +1488,7 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>1</v>
@@ -1507,7 +1506,7 @@
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
@@ -1525,7 +1524,7 @@
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>1</v>
@@ -1543,7 +1542,7 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1</v>
@@ -1561,7 +1560,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
@@ -1579,7 +1578,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>1</v>
@@ -1597,7 +1596,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>1</v>
@@ -1606,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
         <v>59</v>
       </c>
@@ -1614,7 +1613,9 @@
         <v>73</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E60" s="4" t="n">
         <v>1</v>
       </c>
@@ -1631,7 +1632,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>1</v>
@@ -1649,7 +1650,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>1</v>
@@ -1667,7 +1668,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>1</v>
@@ -1687,7 +1688,7 @@
         <v>78</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="4" t="n">
         <v>1</v>
@@ -1705,7 +1706,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>1</v>
@@ -1723,7 +1724,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>1</v>
@@ -1741,7 +1742,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>1</v>
@@ -1759,7 +1760,7 @@
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>1</v>
@@ -1777,7 +1778,7 @@
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>1</v>
@@ -1795,7 +1796,7 @@
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70" s="4" t="n">
         <v>1</v>
@@ -1813,7 +1814,7 @@
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" s="4" t="n">
         <v>1</v>
@@ -1831,7 +1832,7 @@
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72" s="4" t="n">
         <v>1</v>
@@ -1849,7 +1850,7 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>1</v>
@@ -1867,7 +1868,7 @@
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>1</v>
@@ -1885,7 +1886,7 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>1</v>
@@ -1903,7 +1904,7 @@
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>1</v>
@@ -1921,7 +1922,7 @@
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" s="4" t="n">
         <v>1</v>
@@ -1939,7 +1940,7 @@
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78" s="4" t="n">
         <v>1</v>
@@ -1957,7 +1958,7 @@
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79" s="4" t="n">
         <v>1</v>
@@ -1975,7 +1976,7 @@
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80" s="4" t="n">
         <v>1</v>
@@ -1993,7 +1994,7 @@
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>1</v>
@@ -2011,7 +2012,7 @@
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>1</v>
@@ -2029,7 +2030,7 @@
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>1</v>
@@ -2047,7 +2048,7 @@
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>1</v>
